--- a/assets/resources/TEMPLATE_DataFields_Vouchers_BioAssets_Wild.xlsx
+++ b/assets/resources/TEMPLATE_DataFields_Vouchers_BioAssets_Wild.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Research\FieldWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbotanicgardens.sharepoint.com/sites/FieldWork/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65F087-051D-4096-B5EA-D1AAEB85768B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FD65F087-051D-4096-B5EA-D1AAEB85768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87059924-526D-4415-9195-585C613062FB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>recordedBy</t>
   </si>
@@ -318,13 +318,7 @@
     <t>format = trait: value; trait: value;</t>
   </si>
   <si>
-    <t>site_image_code</t>
-  </si>
-  <si>
-    <t>specimen_image_code</t>
-  </si>
-  <si>
-    <t>when using QR image method</t>
+    <t>iNaturalist ID</t>
   </si>
 </sst>
 </file>
@@ -671,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1:BD2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,15 +716,16 @@
     <col min="46" max="46" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -876,31 +871,28 @@
         <v>68</v>
       </c>
       <c r="AW1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -1021,30 +1013,244 @@
       <c r="AV2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1BE5CD796B69543BA7FCF39B9A430F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48f98be3a9b998f19577fe96e9026a80">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf26cdc5-6581-43e5-a643-41a56d0810f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b90b828ce3bab7196225ca911adf86" ns2:_="">
+    <xsd:import namespace="bf26cdc5-6581-43e5-a643-41a56d0810f3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bf26cdc5-6581-43e5-a643-41a56d0810f3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5FA02A-BE01-4CF0-9B30-F8CA8555C0C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BE7A7B-AB9D-4051-848E-F0F44269FF91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8CCA6BC-CC7C-42F3-8E95-F6068EA83625}"/>
 </file>
--- a/assets/resources/TEMPLATE_DataFields_Vouchers_BioAssets_Wild.xlsx
+++ b/assets/resources/TEMPLATE_DataFields_Vouchers_BioAssets_Wild.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbotanicgardens.sharepoint.com/sites/FieldWork/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.levy\.ssh\interactiveGuide\assets\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FD65F087-051D-4096-B5EA-D1AAEB85768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87059924-526D-4415-9195-585C613062FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B6E70F-6A90-4F99-A184-46C4BEE6E50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,9 +300,6 @@
     <t>dynamicProperties</t>
   </si>
   <si>
-    <t>format = {"trait":"value"} , {"trait":numericValue} example = {"flowerColor":"purple"} , {"heightInCentimeters":14.3}</t>
-  </si>
-  <si>
     <t>Phenology: flower and fruit; flower; fruit; seed cone; pollen cone; pollen and seed cone; spore; vegetative; reproductive bud; flower and bud; vegetative bud</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>iNaturalist ID</t>
+  </si>
+  <si>
+    <t>format = {"trait":"value","trait":numericValue} example = {"flowerColor":"purple","heightInCentimeters":14.3}</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>90</v>
@@ -871,7 +871,7 @@
         <v>68</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>24</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>67</v>
@@ -939,13 +939,13 @@
         <v>23</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>57</v>
@@ -1020,7 +1020,7 @@
         <v>61</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>34</v>
@@ -1036,21 +1036,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1BE5CD796B69543BA7FCF39B9A430F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48f98be3a9b998f19577fe96e9026a80">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf26cdc5-6581-43e5-a643-41a56d0810f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b90b828ce3bab7196225ca911adf86" ns2:_="">
     <xsd:import namespace="bf26cdc5-6581-43e5-a643-41a56d0810f3"/>
@@ -1234,11 +1219,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5FA02A-BE01-4CF0-9B30-F8CA8555C0C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8CCA6BC-CC7C-42F3-8E95-F6068EA83625}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf26cdc5-6581-43e5-a643-41a56d0810f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1252,5 +1261,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8CCA6BC-CC7C-42F3-8E95-F6068EA83625}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5FA02A-BE01-4CF0-9B30-F8CA8555C0C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>